--- a/biology/Botanique/Joseph_Robert_Sealy/Joseph_Robert_Sealy.xlsx
+++ b/biology/Botanique/Joseph_Robert_Sealy/Joseph_Robert_Sealy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Robert Sealy (1907 - 1er août 2000) est un botaniste britannique spécialiste des Caméllias.
 Il a commencé la botanique en travaillant à Kew Gardens, à partir de 1925, avec Thomas Archibald Sprague sur les cultures tropicales. En 1927 il est désigné pour s'occuper, avec le directeur, le Dr. Arthur Hill, de l'herbier. Il est nommé assistant botaniste en 1940. Sa spécialité était la flore de Chine, en particulier les camélias. 
@@ -513,9 +525,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Revision of the Genus Camellia[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Revision of the Genus Camellia.</t>
         </is>
       </c>
     </row>
@@ -543,7 +557,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1957: membre d'honneur de l'American Camellia Society.
 1958: Médaille Veitch d'argent.</t>
@@ -574,7 +590,9 @@
           <t>Espèces nommées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Iris confusa  
 Sarcococca confusa
